--- a/data/bp_fcv.xlsx
+++ b/data/bp_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7976408395089823</v>
+        <v>0.8301764870265979</v>
       </c>
       <c r="D2">
-        <v>0.7838081128199818</v>
+        <v>0.01620696097178251</v>
       </c>
       <c r="E2">
-        <v>0.7653650710109969</v>
+        <v>0.804474988907784</v>
       </c>
       <c r="F2">
-        <v>0.7471202440841646</v>
+        <v>0.01001519155963652</v>
       </c>
       <c r="G2">
-        <v>0.7147446563765216</v>
+        <v>0.7899844003189213</v>
+      </c>
+      <c r="H2">
+        <v>0.02033703622902071</v>
+      </c>
+      <c r="I2">
+        <v>0.7602991958696066</v>
+      </c>
+      <c r="J2">
+        <v>0.03485790028378719</v>
+      </c>
+      <c r="K2">
+        <v>0.7299754826971369</v>
+      </c>
+      <c r="L2">
+        <v>0.02691398258421014</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.7525084637789371</v>
+        <v>0.834042002112146</v>
       </c>
       <c r="D3">
-        <v>0.7336944275354486</v>
+        <v>0.01864744979041622</v>
       </c>
       <c r="E3">
-        <v>0.7212843735052165</v>
+        <v>0.8101490921849617</v>
       </c>
       <c r="F3">
-        <v>0.718325191002857</v>
+        <v>0.01979147470624407</v>
       </c>
       <c r="G3">
-        <v>0.703385988451032</v>
+        <v>0.784359184675707</v>
+      </c>
+      <c r="H3">
+        <v>0.01907896668677899</v>
+      </c>
+      <c r="I3">
+        <v>0.758225926686428</v>
+      </c>
+      <c r="J3">
+        <v>0.03502610512468584</v>
+      </c>
+      <c r="K3">
+        <v>0.7371086246428523</v>
+      </c>
+      <c r="L3">
+        <v>0.02657984219504058</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.798603644024047</v>
+        <v>0.8188613067032602</v>
       </c>
       <c r="D4">
-        <v>0.7905599909005203</v>
+        <v>0.01475753081972156</v>
       </c>
       <c r="E4">
-        <v>0.7794541653076997</v>
+        <v>0.7949935364549775</v>
       </c>
       <c r="F4">
-        <v>0.7872231192756428</v>
+        <v>0.009704860393678101</v>
       </c>
       <c r="G4">
-        <v>0.7389958279313203</v>
+        <v>0.7970131973818548</v>
+      </c>
+      <c r="H4">
+        <v>0.01736545885836565</v>
+      </c>
+      <c r="I4">
+        <v>0.7849936330329443</v>
+      </c>
+      <c r="J4">
+        <v>0.02155699213976994</v>
+      </c>
+      <c r="K4">
+        <v>0.7501861484506362</v>
+      </c>
+      <c r="L4">
+        <v>0.02194102561853693</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7321373654538257</v>
+        <v>0.7480844923069249</v>
       </c>
       <c r="D5">
-        <v>0.7268328377761547</v>
+        <v>0.02739293401449815</v>
       </c>
       <c r="E5">
-        <v>0.7156795231391351</v>
+        <v>0.7522325658032371</v>
       </c>
       <c r="F5">
-        <v>0.6972926134458112</v>
+        <v>0.02304903023573984</v>
       </c>
       <c r="G5">
-        <v>0.6878687041240801</v>
+        <v>0.730953756578356</v>
+      </c>
+      <c r="H5">
+        <v>0.02686600358376494</v>
+      </c>
+      <c r="I5">
+        <v>0.7363863921154541</v>
+      </c>
+      <c r="J5">
+        <v>0.03812658847494436</v>
+      </c>
+      <c r="K5">
+        <v>0.7019575220013522</v>
+      </c>
+      <c r="L5">
+        <v>0.03912593830585765</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.6435946028215682</v>
+        <v>0.7304882364943679</v>
       </c>
       <c r="D6">
-        <v>0.6409891034534261</v>
+        <v>0.02373524230449939</v>
       </c>
       <c r="E6">
-        <v>0.6327829150435472</v>
+        <v>0.7170672844357646</v>
       </c>
       <c r="F6">
-        <v>0.625301639531161</v>
+        <v>0.0224952372983046</v>
       </c>
       <c r="G6">
-        <v>0.6211894647343866</v>
+        <v>0.7014888452720773</v>
+      </c>
+      <c r="H6">
+        <v>0.01459773894989873</v>
+      </c>
+      <c r="I6">
+        <v>0.6857028003138599</v>
+      </c>
+      <c r="J6">
+        <v>0.0241335124732715</v>
+      </c>
+      <c r="K6">
+        <v>0.6524342347795187</v>
+      </c>
+      <c r="L6">
+        <v>0.02852221256805043</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.6600022535201833</v>
+        <v>0.8226885444408912</v>
       </c>
       <c r="D7">
-        <v>0.6648309665905732</v>
+        <v>0.01553948102979973</v>
       </c>
       <c r="E7">
-        <v>0.6431271601708449</v>
+        <v>0.8023488690683539</v>
       </c>
       <c r="F7">
-        <v>0.6406460387812319</v>
+        <v>0.01688043602760385</v>
       </c>
       <c r="G7">
-        <v>0.6305646932697139</v>
+        <v>0.7876084984814273</v>
+      </c>
+      <c r="H7">
+        <v>0.02327066474866556</v>
+      </c>
+      <c r="I7">
+        <v>0.7775465523649588</v>
+      </c>
+      <c r="J7">
+        <v>0.02852058239499256</v>
+      </c>
+      <c r="K7">
+        <v>0.7409188894969273</v>
+      </c>
+      <c r="L7">
+        <v>0.02674371294456405</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.6122997333856726</v>
+        <v>0.8284523723682378</v>
       </c>
       <c r="D8">
-        <v>0.6738583169489423</v>
+        <v>0.01610605149363529</v>
       </c>
       <c r="E8">
-        <v>0.6582452184612634</v>
+        <v>0.8121991441434286</v>
       </c>
       <c r="F8">
-        <v>0.6132161391833824</v>
+        <v>0.01422813002032585</v>
       </c>
       <c r="G8">
-        <v>0.5797732568460485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8104658928466002</v>
-      </c>
-      <c r="D9">
-        <v>0.8033098964633524</v>
-      </c>
-      <c r="E9">
-        <v>0.7834173010550446</v>
-      </c>
-      <c r="F9">
-        <v>0.7740979914987735</v>
-      </c>
-      <c r="G9">
-        <v>0.7427046177153758</v>
+        <v>0.7976868946973996</v>
+      </c>
+      <c r="H8">
+        <v>0.02442913581330806</v>
+      </c>
+      <c r="I8">
+        <v>0.78808773864576</v>
+      </c>
+      <c r="J8">
+        <v>0.02874693741794955</v>
+      </c>
+      <c r="K8">
+        <v>0.76311332558259</v>
+      </c>
+      <c r="L8">
+        <v>0.03044243359301423</v>
       </c>
     </row>
   </sheetData>
